--- a/public/files/template/inventory/lap_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_pengadaan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>SOPD</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>: [b.kd_prov]</t>
+  </si>
+  <si>
+    <t>PUSKESMAS</t>
+  </si>
+  <si>
+    <t>: [b.puskesmas]</t>
   </si>
 </sst>
 </file>
@@ -228,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -240,42 +246,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,241 +590,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L10" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3" t="s">
+    <row r="11" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>7</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>8</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <v>10</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="2">
         <v>11</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L12" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
